--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.747789911469044</v>
+        <v>4.74778991142237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3288058369876183</v>
+        <v>0.3288058369845771</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1170578368285305</v>
+        <v>0.1170578368275651</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.694447886423331</v>
+        <v>6.694447895948978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4615018506946988</v>
+        <v>0.4615018544434568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1618184133183482</v>
+        <v>0.161818414213101</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.861648090456851</v>
+        <v>4.86164809037231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3361269026630451</v>
+        <v>0.3361269026568495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1189920870833684</v>
+        <v>0.1189920870810132</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.982192731563363</v>
+        <v>4.956604764573581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3459464266098836</v>
+        <v>0.3441179585908825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1215844474896576</v>
+        <v>0.120886458482764</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.680801330312592</v>
+        <v>5.685595881878532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3982095834669104</v>
+        <v>0.3983650810451488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1382561414115787</v>
+        <v>0.1383254968071802</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.689571449340284</v>
+        <v>6.689571449340434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.461130217086979</v>
+        <v>0.46113021708699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1619318402081165</v>
+        <v>0.1619318402081192</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.742410259347929</v>
+        <v>6.742410309655618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4638237167340029</v>
+        <v>0.4638237310864295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1629767176641539</v>
+        <v>0.1629767155299528</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.789037856034742</v>
+        <v>7.577393118650541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0865655363636115</v>
+        <v>0.4920703323944381</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1657694559551336</v>
+        <v>0.1697873224940466</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.785752551928087</v>
+        <v>6.745538389216302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4920165871181895</v>
+        <v>0.488613448335998</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1611846280755431</v>
+        <v>0.1607702104724837</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.574472964479681</v>
+        <v>6.746327645996322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5595959157052665</v>
+        <v>0.4886993188448626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1773863547330509</v>
+        <v>0.1610347623438447</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.465453737077326</v>
+        <v>7.383736928058548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4650409864622796</v>
+        <v>0.542791897780657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1568888215965603</v>
+        <v>0.1735853382385902</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.745538389216302</v>
+        <v>6.745086837840486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.488613448335998</v>
+        <v>0.4885584324417955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1607702104724837</v>
+        <v>0.1608985543086039</v>
       </c>
     </row>
     <row r="12">
